--- a/data/trans_dic/P04D$individual-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2197611140648532</v>
+        <v>0.2213017631670377</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2254868186786144</v>
+        <v>0.2273861488879209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1251782238238108</v>
+        <v>0.1232285637080019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2230230276339736</v>
+        <v>0.2217391280242191</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2208247214609582</v>
+        <v>0.2177914791343827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1334239705774126</v>
+        <v>0.1338776004709495</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2289988119162022</v>
+        <v>0.2314300183424639</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2326002766629182</v>
+        <v>0.2346653205885748</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1374506456967274</v>
+        <v>0.1371115313978719</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.28966918498043</v>
+        <v>0.2893469221351732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2950487512148208</v>
+        <v>0.2953143453840593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1952285220084349</v>
+        <v>0.1963668678700937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2895917788439785</v>
+        <v>0.2889895313780539</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2890214350450153</v>
+        <v>0.2859925825295235</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1801767788468253</v>
+        <v>0.1808512112873847</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2769355205104139</v>
+        <v>0.2776201849495175</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2837165334134724</v>
+        <v>0.2832793370446098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1775191469192476</v>
+        <v>0.1784045156350215</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2451844527872614</v>
+        <v>0.2452235210917079</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2451809207500863</v>
+        <v>0.2442446029716788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.168954286935228</v>
+        <v>0.1702882991941121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2271547570436898</v>
+        <v>0.228073841622167</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2616031605011658</v>
+        <v>0.258727961164796</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1311125185741321</v>
+        <v>0.1318516340042585</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2452164110005594</v>
+        <v>0.2423082336548761</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2588973325529885</v>
+        <v>0.2612110262278406</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1568562184341193</v>
+        <v>0.1568042801659355</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3010630289219602</v>
+        <v>0.3061755652034635</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3036204501490254</v>
+        <v>0.3027672865032035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2272760965017233</v>
+        <v>0.2314782344492474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2856125875793606</v>
+        <v>0.2838235337328128</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3183676482425193</v>
+        <v>0.317228099840604</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1748307955443831</v>
+        <v>0.1708047130249351</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2848936050224908</v>
+        <v>0.285943806823653</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3010765938299456</v>
+        <v>0.3014315866657778</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1908995858264931</v>
+        <v>0.1936562130291525</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.3754691467305462</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.09399695557252791</v>
+        <v>0.09399695557252792</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2339599133533085</v>
@@ -882,7 +882,7 @@
         <v>0.3613146636380177</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.09765531625067389</v>
+        <v>0.09765531625067388</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2170199231588831</v>
+        <v>0.2176360381428825</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3079062117875594</v>
+        <v>0.3130275618000297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08015126222286445</v>
+        <v>0.08183584568244866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1895943708319109</v>
+        <v>0.1925582202497705</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3404376571184464</v>
+        <v>0.3382234649526595</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0760786502357552</v>
+        <v>0.07843310309763402</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2114377376092681</v>
+        <v>0.2098916402430014</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3360899292046353</v>
+        <v>0.3349027974730711</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.084281446943396</v>
+        <v>0.08405802578887332</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2821527896596685</v>
+        <v>0.2793375340671375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3812938780188732</v>
+        <v>0.3836095680926216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1266643522895472</v>
+        <v>0.1280156055252277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2518943741956863</v>
+        <v>0.2504561349013122</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4093381966108217</v>
+        <v>0.4103858196181698</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1141941744436508</v>
+        <v>0.116462188652384</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2572465049648348</v>
+        <v>0.2558509512044053</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3851729896955887</v>
+        <v>0.3872805972262493</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1145582146330095</v>
+        <v>0.112412048346729</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.2679551647555959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2348374255859903</v>
+        <v>0.2348374255859902</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3777598035049453</v>
@@ -982,7 +982,7 @@
         <v>0.3163031565103368</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2405421095473631</v>
+        <v>0.2405421095473632</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.3849044624708395</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.359445565186824</v>
+        <v>0.3649088320902465</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2404791025345138</v>
+        <v>0.2403309241848923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2081540447752586</v>
+        <v>0.2087048678881282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.34725372150953</v>
+        <v>0.3482563041263995</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2856619927451035</v>
+        <v>0.2845178522205663</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2166954440159198</v>
+        <v>0.217190693202822</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3627064333588232</v>
+        <v>0.3615619717320251</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.270922545883288</v>
+        <v>0.2722519441081096</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2193994434936651</v>
+        <v>0.2190367969696498</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4299746049443879</v>
+        <v>0.4246964810122001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2968502629581115</v>
+        <v>0.2971444563099934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2643672168853636</v>
+        <v>0.2656730488688739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4105173370619786</v>
+        <v>0.4106051263137447</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3464260809121401</v>
+        <v>0.3473118329597494</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2641728948255947</v>
+        <v>0.2627579121289166</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4080211248904302</v>
+        <v>0.4068319127355039</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3153662699419056</v>
+        <v>0.31451714438217</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2563343561862952</v>
+        <v>0.2563855741807292</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>153988</v>
+        <v>155067</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>152159</v>
+        <v>153440</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86190</v>
+        <v>84848</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>155207</v>
+        <v>154314</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>148579</v>
+        <v>146539</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>97868</v>
+        <v>98201</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>319827</v>
+        <v>323222</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>313461</v>
+        <v>316244</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>195462</v>
+        <v>194980</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>202973</v>
+        <v>202747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>199099</v>
+        <v>199278</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134423</v>
+        <v>135207</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>201534</v>
+        <v>201115</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>194465</v>
+        <v>192427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>132161</v>
+        <v>132656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>386776</v>
+        <v>387733</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>382347</v>
+        <v>381758</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>252441</v>
+        <v>253700</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>248755</v>
+        <v>248795</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>250681</v>
+        <v>249723</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>177024</v>
+        <v>178422</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>233991</v>
+        <v>234937</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>272829</v>
+        <v>269831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>140027</v>
+        <v>140816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>501383</v>
+        <v>495437</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>534712</v>
+        <v>539491</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>331869</v>
+        <v>331759</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>305448</v>
+        <v>310635</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>310431</v>
+        <v>309559</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>238131</v>
+        <v>242534</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>294208</v>
+        <v>292365</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>332030</v>
+        <v>330841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>186717</v>
+        <v>182417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>582510</v>
+        <v>584657</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>621827</v>
+        <v>622560</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>403896</v>
+        <v>409728</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>164214</v>
+        <v>164680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>233871</v>
+        <v>237761</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63941</v>
+        <v>65285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>147160</v>
+        <v>149460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>267247</v>
+        <v>265509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61635</v>
+        <v>63543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>324104</v>
+        <v>321734</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>519112</v>
+        <v>517278</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>135517</v>
+        <v>135158</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>213498</v>
+        <v>211368</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>289613</v>
+        <v>291371</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>101047</v>
+        <v>102125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>195516</v>
+        <v>194400</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>321335</v>
+        <v>322157</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>92515</v>
+        <v>94352</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>394322</v>
+        <v>392183</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>594924</v>
+        <v>598179</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>184199</v>
+        <v>180748</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>340661</v>
+        <v>345838</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>225465</v>
+        <v>225326</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>205640</v>
+        <v>206184</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>365277</v>
+        <v>366331</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>298168</v>
+        <v>296974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>241830</v>
+        <v>242383</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>725282</v>
+        <v>722994</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>536791</v>
+        <v>539425</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>461597</v>
+        <v>460834</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>407504</v>
+        <v>402501</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>278317</v>
+        <v>278593</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>261174</v>
+        <v>262464</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>431824</v>
+        <v>431916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>361592</v>
+        <v>362517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>294815</v>
+        <v>293235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>815895</v>
+        <v>813517</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>624850</v>
+        <v>623167</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>539305</v>
+        <v>539413</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
     </row>
     <row r="24">
